--- a/URUVS/Datasheets/URUV/09.2024/September_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/09.2024/September_RecordingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\09.2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swulfing\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\09.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C67E1ED-E77E-4B6F-98F0-18AB58C6A73C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7597C-DF3E-4070-9161-041B975E0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadata" sheetId="6" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="188">
   <si>
     <t>DATE</t>
   </si>
@@ -837,15 +843,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,8 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -870,16 +876,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -887,13 +892,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,10 +907,10 @@
     <xf numFmtId="46" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,11 +922,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -935,28 +940,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,10 +1239,10 @@
   <dimension ref="A1:CW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1262,6 @@
     <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.7265625" style="73"/>
     <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -1287,7 +1285,7 @@
       <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1380,196 +1378,196 @@
       <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AK1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="83" t="s">
+      <c r="AL1" s="81" t="s">
         <v>48</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="60" t="s">
+      <c r="AN1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="83" t="s">
+      <c r="AO1" s="81" t="s">
         <v>55</v>
       </c>
       <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="60" t="s">
+      <c r="AQ1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="83" t="s">
+      <c r="AR1" s="81" t="s">
         <v>39</v>
       </c>
       <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="60" t="s">
+      <c r="AT1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="83" t="s">
+      <c r="AU1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="60" t="s">
+      <c r="AW1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="83" t="s">
+      <c r="AX1" s="81" t="s">
         <v>129</v>
       </c>
       <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="60" t="s">
+      <c r="AZ1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="BA1" s="83" t="s">
+      <c r="BA1" s="81" t="s">
         <v>36</v>
       </c>
       <c r="BB1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" s="60" t="s">
+      <c r="BC1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="BD1" s="83" t="s">
+      <c r="BD1" s="81" t="s">
         <v>45</v>
       </c>
       <c r="BE1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="60" t="s">
+      <c r="BF1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="83" t="s">
+      <c r="BG1" s="81" t="s">
         <v>42</v>
       </c>
       <c r="BH1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" s="60" t="s">
+      <c r="BI1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BJ1" s="83" t="s">
+      <c r="BJ1" s="81" t="s">
         <v>50</v>
       </c>
       <c r="BK1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="60" t="s">
+      <c r="BL1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="83" t="s">
+      <c r="BM1" s="81" t="s">
         <v>59</v>
       </c>
       <c r="BN1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" s="83" t="s">
+      <c r="BP1" s="81" t="s">
         <v>62</v>
       </c>
       <c r="BQ1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" s="60" t="s">
+      <c r="BR1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" s="83" t="s">
+      <c r="BS1" s="81" t="s">
         <v>117</v>
       </c>
       <c r="BT1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="60" t="s">
+      <c r="BU1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" s="83" t="s">
+      <c r="BV1" s="81" t="s">
         <v>120</v>
       </c>
       <c r="BW1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BX1" s="60" t="s">
+      <c r="BX1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="84" t="s">
+      <c r="BY1" s="81" t="s">
         <v>126</v>
       </c>
       <c r="BZ1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="CA1" s="60" t="s">
+      <c r="CA1" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="CB1" s="83" t="s">
+      <c r="CB1" s="81" t="s">
         <v>138</v>
       </c>
       <c r="CC1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CD1" s="60" t="s">
+      <c r="CD1" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="CE1" s="83" t="s">
+      <c r="CE1" s="81" t="s">
         <v>123</v>
       </c>
       <c r="CF1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CG1" s="60" t="s">
+      <c r="CG1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="CH1" s="83" t="s">
+      <c r="CH1" s="81" t="s">
         <v>132</v>
       </c>
       <c r="CI1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CJ1" s="60" t="s">
+      <c r="CJ1" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="CK1" s="83" t="s">
+      <c r="CK1" s="81" t="s">
         <v>135</v>
       </c>
       <c r="CL1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CM1" s="60" t="s">
+      <c r="CM1" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="83" t="s">
+      <c r="CN1" s="81" t="s">
         <v>65</v>
       </c>
       <c r="CO1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CP1" s="60" t="s">
+      <c r="CP1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="CQ1" s="83" t="s">
+      <c r="CQ1" s="81" t="s">
         <v>141</v>
       </c>
       <c r="CR1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CS1" s="60" t="s">
+      <c r="CS1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="CT1" s="83" t="s">
+      <c r="CT1" s="81" t="s">
         <v>12</v>
       </c>
       <c r="CU1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CV1" s="60" t="s">
+      <c r="CV1" s="59" t="s">
         <v>33</v>
       </c>
       <c r="CW1" s="28" t="s">
@@ -1592,7 +1590,7 @@
       <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="str">
+      <c r="F2" s="74" t="str">
         <f>D2&amp;""&amp;E2</f>
         <v>E5</v>
       </c>
@@ -1673,121 +1671,121 @@
         <v>NA</v>
       </c>
       <c r="AO2" s="31"/>
-      <c r="AP2" s="57"/>
+      <c r="AP2" s="56"/>
       <c r="AQ2" s="33" t="str">
         <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="57"/>
       <c r="AT2" s="33" t="str">
         <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="57"/>
       <c r="AW2" s="33" t="str">
         <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="57"/>
       <c r="AZ2" s="33" t="str">
         <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="57"/>
       <c r="BC2" s="33" t="str">
         <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="57"/>
       <c r="BF2" s="33" t="str">
         <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="57"/>
       <c r="BI2" s="33" t="str">
         <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="57"/>
       <c r="BL2" s="33" t="str">
         <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="57"/>
       <c r="BO2" s="33" t="str">
         <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="57"/>
       <c r="BR2" s="33" t="str">
         <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="74"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="72"/>
       <c r="BU2" s="33" t="str">
         <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="57"/>
       <c r="BX2" s="33" t="str">
         <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="57"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="56"/>
       <c r="CA2" s="33" t="str">
         <f t="shared" ref="CA2:CA22" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="72"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="71"/>
       <c r="CD2" s="33" t="str">
         <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="72"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="71"/>
       <c r="CG2" s="33" t="str">
         <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="72"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="71"/>
       <c r="CJ2" s="33" t="str">
         <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CK2" s="59"/>
-      <c r="CL2" s="72"/>
+      <c r="CK2" s="58"/>
+      <c r="CL2" s="71"/>
       <c r="CM2" s="33" t="str">
         <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CN2" s="59"/>
-      <c r="CO2" s="72"/>
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="71"/>
       <c r="CP2" s="33" t="str">
         <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CQ2" s="59"/>
-      <c r="CR2" s="72"/>
+      <c r="CQ2" s="58"/>
+      <c r="CR2" s="71"/>
       <c r="CS2" s="33" t="str">
         <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CT2" s="59"/>
-      <c r="CU2" s="72"/>
+      <c r="CT2" s="58"/>
+      <c r="CU2" s="71"/>
       <c r="CV2" s="33" t="str">
         <f t="shared" ref="CV2:CV13" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
         <v>NA</v>
@@ -1810,7 +1808,7 @@
       <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="76" t="str">
+      <c r="F3" s="74" t="str">
         <f t="shared" ref="F3:F22" si="22">D3&amp;""&amp;E3</f>
         <v>E6</v>
       </c>
@@ -1962,8 +1960,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="57"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="56"/>
       <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2028,7 +2026,7 @@
       <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="76" t="str">
+      <c r="F4" s="74" t="str">
         <f t="shared" si="22"/>
         <v>E4</v>
       </c>
@@ -2180,8 +2178,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="57"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="56"/>
       <c r="CA4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2246,7 +2244,7 @@
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="76" t="str">
+      <c r="F5" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L4</v>
       </c>
@@ -2398,8 +2396,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="57"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="56"/>
       <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2464,7 +2462,7 @@
       <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="76" t="str">
+      <c r="F6" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D5</v>
       </c>
@@ -2616,8 +2614,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="57"/>
+      <c r="BY6" s="31"/>
+      <c r="BZ6" s="56"/>
       <c r="CA6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2682,7 +2680,7 @@
       <c r="E7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="76" t="str">
+      <c r="F7" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D6</v>
       </c>
@@ -2834,8 +2832,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="57"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="56"/>
       <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2900,7 +2898,7 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="76" t="str">
+      <c r="F8" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D4</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>NA</v>
       </c>
       <c r="AO8" s="31"/>
-      <c r="AP8" s="71"/>
+      <c r="AP8" s="70"/>
       <c r="AQ8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -3052,8 +3050,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="57"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="56"/>
       <c r="CA8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3089,13 +3087,13 @@
         <v>NA</v>
       </c>
       <c r="CQ8" s="31"/>
-      <c r="CR8" s="71"/>
+      <c r="CR8" s="70"/>
       <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT8" s="31"/>
-      <c r="CU8" s="71"/>
+      <c r="CU8" s="70"/>
       <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
@@ -3118,7 +3116,7 @@
       <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L5</v>
       </c>
@@ -3270,8 +3268,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="57"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="56"/>
       <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3307,13 +3305,13 @@
         <v>NA</v>
       </c>
       <c r="CQ9" s="31"/>
-      <c r="CR9" s="57"/>
+      <c r="CR9" s="56"/>
       <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT9" s="31"/>
-      <c r="CU9" s="57"/>
+      <c r="CU9" s="56"/>
       <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
@@ -3336,7 +3334,7 @@
       <c r="E10" s="5">
         <v>6</v>
       </c>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L6</v>
       </c>
@@ -3488,8 +3486,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="57"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="56"/>
       <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3554,7 +3552,7 @@
       <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L3</v>
       </c>
@@ -3706,8 +3704,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY11" s="41"/>
-      <c r="BZ11" s="57"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="56"/>
       <c r="CA11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3760,15 +3758,19 @@
       <c r="A12" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="76" t="str">
+      <c r="F12" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D1</v>
       </c>
@@ -3920,50 +3922,50 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="57"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="56"/>
       <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB12" s="31"/>
-      <c r="CC12" s="71"/>
+      <c r="CC12" s="70"/>
       <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE12" s="31"/>
-      <c r="CF12" s="71"/>
+      <c r="CF12" s="70"/>
       <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CH12" s="31"/>
-      <c r="CI12" s="71"/>
+      <c r="CI12" s="70"/>
       <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CK12" s="31"/>
-      <c r="CL12" s="71"/>
+      <c r="CL12" s="70"/>
       <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CN12" s="31"/>
-      <c r="CO12" s="71"/>
+      <c r="CO12" s="70"/>
       <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CQ12" s="31"/>
-      <c r="CR12" s="71"/>
+      <c r="CR12" s="70"/>
       <c r="CS12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT12" s="31"/>
-      <c r="CU12" s="71"/>
+      <c r="CU12" s="70"/>
       <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
@@ -3974,15 +3976,19 @@
       <c r="A13" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="76" t="str">
+      <c r="F13" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L2</v>
       </c>
@@ -4134,8 +4140,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="57"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="56"/>
       <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4188,15 +4194,19 @@
       <c r="A14" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="76" t="str">
+      <c r="F14" s="74" t="str">
         <f t="shared" si="22"/>
         <v>L1</v>
       </c>
@@ -4348,8 +4358,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="57"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="56"/>
       <c r="CA14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4402,15 +4412,19 @@
       <c r="A15" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="76" t="str">
+      <c r="F15" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D2</v>
       </c>
@@ -4557,25 +4571,25 @@
         <v>NA</v>
       </c>
       <c r="BV15" s="31"/>
-      <c r="BW15" s="71"/>
+      <c r="BW15" s="70"/>
       <c r="BX15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="57"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="56"/>
       <c r="CA15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB15" s="31"/>
-      <c r="CC15" s="71"/>
+      <c r="CC15" s="70"/>
       <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE15" s="31"/>
-      <c r="CF15" s="71"/>
+      <c r="CF15" s="70"/>
       <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4616,15 +4630,19 @@
       <c r="A16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="76" t="str">
+      <c r="F16" s="74" t="str">
         <f t="shared" si="22"/>
         <v>D3</v>
       </c>
@@ -4742,11 +4760,11 @@
       </c>
       <c r="BG16" s="31"/>
       <c r="BH16" s="34"/>
-      <c r="BI16" s="57" t="str">
+      <c r="BI16" s="56" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BJ16" s="41"/>
+      <c r="BJ16" s="31"/>
       <c r="BK16" s="34"/>
       <c r="BL16" s="33" t="str">
         <f t="shared" si="33"/>
@@ -4765,7 +4783,7 @@
         <v>NA</v>
       </c>
       <c r="BS16" s="31"/>
-      <c r="BT16" s="57"/>
+      <c r="BT16" s="56"/>
       <c r="BU16" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
@@ -4776,8 +4794,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY16" s="41"/>
-      <c r="BZ16" s="57"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="56"/>
       <c r="CA16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4830,9 +4848,11 @@
       <c r="A17" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="C17" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>152</v>
@@ -4840,7 +4860,7 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="76" t="str">
+      <c r="F17" s="74" t="str">
         <f t="shared" si="22"/>
         <v>E1</v>
       </c>
@@ -4960,19 +4980,19 @@
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BJ17" s="41"/>
+      <c r="BJ17" s="31"/>
       <c r="BK17" s="34"/>
       <c r="BL17" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BM17" s="41"/>
+      <c r="BM17" s="31"/>
       <c r="BN17" s="34"/>
       <c r="BO17" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BP17" s="41"/>
+      <c r="BP17" s="31"/>
       <c r="BQ17" s="34"/>
       <c r="BR17" s="33" t="str">
         <f t="shared" si="35"/>
@@ -4990,8 +5010,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY17" s="41"/>
-      <c r="BZ17" s="57"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="56"/>
       <c r="CA17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5044,15 +5064,19 @@
       <c r="A18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="76" t="str">
+      <c r="F18" s="74" t="str">
         <f t="shared" si="22"/>
         <v>E2</v>
       </c>
@@ -5202,8 +5226,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY18" s="41"/>
-      <c r="BZ18" s="57"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="56"/>
       <c r="CA18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5256,15 +5280,19 @@
       <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
       </c>
-      <c r="F19" s="76" t="str">
+      <c r="F19" s="74" t="str">
         <f t="shared" si="22"/>
         <v>E3</v>
       </c>
@@ -5414,8 +5442,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY19" s="41"/>
-      <c r="BZ19" s="57"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="56"/>
       <c r="CA19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5468,11 +5496,13 @@
       <c r="A20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="76" t="str">
+      <c r="F20" s="74" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -5600,8 +5630,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY20" s="41"/>
-      <c r="BZ20" s="57"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="56"/>
       <c r="CA20" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5654,11 +5684,13 @@
       <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="76" t="str">
+      <c r="F21" s="74" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -5687,18 +5719,18 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
       <c r="AC21" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
       <c r="AF21" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -5757,7 +5789,7 @@
         <v>NA</v>
       </c>
       <c r="BJ21" s="31"/>
-      <c r="BK21" s="57"/>
+      <c r="BK21" s="56"/>
       <c r="BL21" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
@@ -5786,7 +5818,7 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY21" s="41"/>
+      <c r="BY21" s="31"/>
       <c r="BZ21" s="34"/>
       <c r="CA21" s="33" t="str">
         <f t="shared" si="14"/>
@@ -5829,7 +5861,7 @@
         <v>NA</v>
       </c>
       <c r="CT21" s="31"/>
-      <c r="CU21" s="57"/>
+      <c r="CU21" s="56"/>
       <c r="CV21" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
@@ -5840,11 +5872,13 @@
       <c r="A22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="77" t="str">
+      <c r="F22" s="75" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -5873,18 +5907,18 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
       <c r="AC22" s="23">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
       <c r="AF22" s="23">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -5896,127 +5930,127 @@
       <c r="AK22" s="37"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="40"/>
-      <c r="AN22" s="42" t="str">
+      <c r="AN22" s="41" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AO22" s="38"/>
       <c r="AP22" s="40"/>
-      <c r="AQ22" s="42" t="str">
+      <c r="AQ22" s="41" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AR22" s="38"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="42" t="str">
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="41" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AU22" s="38"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="42" t="str">
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="41" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AX22" s="38"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="42" t="str">
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="41" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="BA22" s="38"/>
       <c r="BB22" s="40"/>
-      <c r="BC22" s="42" t="str">
+      <c r="BC22" s="41" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BD22" s="38"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="42" t="str">
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="41" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BG22" s="38"/>
-      <c r="BH22" s="85"/>
-      <c r="BI22" s="42" t="str">
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="41" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BJ22" s="38"/>
       <c r="BK22" s="40"/>
-      <c r="BL22" s="42" t="str">
+      <c r="BL22" s="41" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BM22" s="38"/>
-      <c r="BN22" s="85"/>
-      <c r="BO22" s="42" t="str">
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="41" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BP22" s="38"/>
-      <c r="BQ22" s="85"/>
-      <c r="BR22" s="42" t="str">
+      <c r="BQ22" s="82"/>
+      <c r="BR22" s="41" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BS22" s="38"/>
-      <c r="BT22" s="85"/>
-      <c r="BU22" s="42" t="str">
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="41" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BV22" s="38"/>
-      <c r="BW22" s="85"/>
-      <c r="BX22" s="42" t="str">
+      <c r="BW22" s="82"/>
+      <c r="BX22" s="41" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY22" s="86"/>
-      <c r="BZ22" s="85"/>
-      <c r="CA22" s="42" t="str">
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="82"/>
+      <c r="CA22" s="41" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB22" s="38"/>
-      <c r="CC22" s="85"/>
-      <c r="CD22" s="42" t="str">
+      <c r="CC22" s="82"/>
+      <c r="CD22" s="41" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE22" s="38"/>
-      <c r="CF22" s="85"/>
-      <c r="CG22" s="42" t="str">
+      <c r="CF22" s="82"/>
+      <c r="CG22" s="41" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CH22" s="38"/>
-      <c r="CI22" s="85"/>
-      <c r="CJ22" s="42" t="str">
+      <c r="CI22" s="82"/>
+      <c r="CJ22" s="41" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CK22" s="38"/>
-      <c r="CL22" s="85"/>
-      <c r="CM22" s="42" t="str">
+      <c r="CL22" s="82"/>
+      <c r="CM22" s="41" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CN22" s="38"/>
-      <c r="CO22" s="85"/>
-      <c r="CP22" s="42" t="str">
+      <c r="CO22" s="82"/>
+      <c r="CP22" s="41" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CQ22" s="38"/>
       <c r="CR22" s="40"/>
-      <c r="CS22" s="42" t="str">
+      <c r="CS22" s="41" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT22" s="38"/>
       <c r="CU22" s="40"/>
-      <c r="CV22" s="42" t="str">
+      <c r="CV22" s="41" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
@@ -6060,19 +6094,19 @@
       <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6081,7 +6115,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D226-4FD3-43E7-AD2C-117D056F41E4}">
-  <dimension ref="A1:CX22"/>
+  <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -6093,30 +6127,17 @@
     <col min="23" max="29" width="8.7265625" style="1"/>
     <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.7265625" style="88"/>
-    <col min="43" max="43" width="14.453125" style="88" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="8.7265625" style="88"/>
-    <col min="46" max="46" width="10.7265625" style="88" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="8.7265625" style="88"/>
-    <col min="49" max="49" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="8.7265625" style="88"/>
-    <col min="52" max="52" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="8.7265625" style="88"/>
-    <col min="55" max="55" width="12.81640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="8.7265625" style="88"/>
-    <col min="58" max="58" width="8.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="59" max="76" width="8.7265625" style="88"/>
-    <col min="77" max="77" width="8.7265625" style="89"/>
-    <col min="78" max="78" width="8.7265625" style="88"/>
-    <col min="79" max="79" width="9.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="80" max="84" width="8.7265625" style="88"/>
-    <col min="85" max="85" width="18.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="86" max="96" width="8.7265625" style="88"/>
-    <col min="97" max="97" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="8.7265625" style="88"/>
-    <col min="100" max="100" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="13.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.7265625" style="88"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6135,7 +6156,7 @@
       <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -6228,7 +6249,7 @@
       <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AK1" s="59" t="s">
         <v>11</v>
       </c>
       <c r="AL1" s="26" t="s">
@@ -6242,32 +6263,32 @@
       </c>
     </row>
     <row r="2" spans="1:100" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -6276,117 +6297,117 @@
       <c r="L2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>75</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="V2" s="47"/>
+      <c r="W2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="49" t="s">
         <v>78</v>
       </c>
       <c r="AC2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="AF2" s="20" t="e">
         <f t="shared" ref="AF2:AF22" si="0">AC2-AD2-AE2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AG2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AH2" s="50" t="s">
         <v>81</v>
       </c>
       <c r="AI2" s="22"/>
-      <c r="AJ2" s="52" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="53" t="s">
+      <c r="AK2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" s="54" t="s">
+      <c r="AL2" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="AM2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="57" t="s">
+      <c r="AN2" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="90"/>
-      <c r="AT2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BC2" s="90"/>
-      <c r="BF2" s="90"/>
-      <c r="BI2" s="90"/>
-      <c r="BL2" s="90"/>
-      <c r="BO2" s="90"/>
-      <c r="BR2" s="90"/>
-      <c r="BT2" s="91"/>
-      <c r="BU2" s="90"/>
-      <c r="BX2" s="90"/>
-      <c r="BZ2" s="90"/>
-      <c r="CA2" s="90"/>
-      <c r="CC2" s="92"/>
-      <c r="CD2" s="90"/>
-      <c r="CF2" s="92"/>
-      <c r="CG2" s="90"/>
-      <c r="CI2" s="92"/>
-      <c r="CJ2" s="90"/>
-      <c r="CL2" s="92"/>
-      <c r="CM2" s="90"/>
-      <c r="CO2" s="92"/>
-      <c r="CP2" s="90"/>
-      <c r="CR2" s="92"/>
-      <c r="CS2" s="90"/>
-      <c r="CU2" s="92"/>
-      <c r="CV2" s="90"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="84"/>
+      <c r="BX2" s="84"/>
+      <c r="BZ2" s="84"/>
+      <c r="CA2" s="84"/>
+      <c r="CC2" s="85"/>
+      <c r="CD2" s="84"/>
+      <c r="CF2" s="85"/>
+      <c r="CG2" s="84"/>
+      <c r="CI2" s="85"/>
+      <c r="CJ2" s="84"/>
+      <c r="CL2" s="85"/>
+      <c r="CM2" s="84"/>
+      <c r="CO2" s="85"/>
+      <c r="CP2" s="84"/>
+      <c r="CR2" s="85"/>
+      <c r="CS2" s="84"/>
+      <c r="CU2" s="85"/>
+      <c r="CV2" s="84"/>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -6394,7 +6415,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="76" t="str">
+      <c r="F3" s="74" t="str">
         <f t="shared" ref="F3:F22" si="1">D3&amp;""&amp;E3</f>
         <v/>
       </c>
@@ -6446,31 +6467,31 @@
       <c r="AK3" s="30"/>
       <c r="AL3" s="31"/>
       <c r="AM3" s="34"/>
-      <c r="AN3" s="57" t="str">
+      <c r="AN3" s="56" t="str">
         <f t="shared" ref="AN3:AN22" si="4">IF(AL3=0,"NA",AM3-$AD3)</f>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BL3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BX3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CD3" s="90"/>
-      <c r="CG3" s="90"/>
-      <c r="CJ3" s="90"/>
-      <c r="CM3" s="90"/>
-      <c r="CP3" s="90"/>
-      <c r="CS3" s="90"/>
-      <c r="CV3" s="90"/>
+      <c r="AQ3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BC3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BO3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BU3" s="84"/>
+      <c r="BX3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="84"/>
+      <c r="CD3" s="84"/>
+      <c r="CG3" s="84"/>
+      <c r="CJ3" s="84"/>
+      <c r="CM3" s="84"/>
+      <c r="CP3" s="84"/>
+      <c r="CS3" s="84"/>
+      <c r="CV3" s="84"/>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
@@ -6478,7 +6499,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="76" t="str">
+      <c r="F4" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6530,40 +6551,40 @@
       <c r="AK4" s="30"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="34"/>
-      <c r="AN4" s="57" t="str">
+      <c r="AN4" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="90"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="90"/>
-      <c r="BO4" s="90"/>
-      <c r="BR4" s="90"/>
-      <c r="BU4" s="90"/>
-      <c r="BX4" s="90"/>
-      <c r="BZ4" s="90"/>
-      <c r="CA4" s="90"/>
-      <c r="CC4" s="92"/>
-      <c r="CD4" s="90"/>
-      <c r="CF4" s="92"/>
-      <c r="CG4" s="90"/>
-      <c r="CI4" s="92"/>
-      <c r="CJ4" s="90"/>
-      <c r="CL4" s="92"/>
-      <c r="CM4" s="90"/>
-      <c r="CO4" s="92"/>
-      <c r="CP4" s="90"/>
-      <c r="CR4" s="92"/>
-      <c r="CS4" s="90"/>
-      <c r="CU4" s="92"/>
-      <c r="CV4" s="90"/>
+      <c r="AQ4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BF4" s="84"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="84"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="84"/>
+      <c r="BO4" s="84"/>
+      <c r="BR4" s="84"/>
+      <c r="BU4" s="84"/>
+      <c r="BX4" s="84"/>
+      <c r="BZ4" s="84"/>
+      <c r="CA4" s="84"/>
+      <c r="CC4" s="85"/>
+      <c r="CD4" s="84"/>
+      <c r="CF4" s="85"/>
+      <c r="CG4" s="84"/>
+      <c r="CI4" s="85"/>
+      <c r="CJ4" s="84"/>
+      <c r="CL4" s="85"/>
+      <c r="CM4" s="84"/>
+      <c r="CO4" s="85"/>
+      <c r="CP4" s="84"/>
+      <c r="CR4" s="85"/>
+      <c r="CS4" s="84"/>
+      <c r="CU4" s="85"/>
+      <c r="CV4" s="84"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -6571,7 +6592,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="76" t="str">
+      <c r="F5" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6623,31 +6644,31 @@
       <c r="AK5" s="30"/>
       <c r="AL5" s="31"/>
       <c r="AM5" s="34"/>
-      <c r="AN5" s="57" t="str">
+      <c r="AN5" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BI5" s="90"/>
-      <c r="BL5" s="90"/>
-      <c r="BO5" s="90"/>
-      <c r="BR5" s="90"/>
-      <c r="BU5" s="90"/>
-      <c r="BX5" s="90"/>
-      <c r="BZ5" s="90"/>
-      <c r="CA5" s="90"/>
-      <c r="CD5" s="90"/>
-      <c r="CG5" s="90"/>
-      <c r="CJ5" s="90"/>
-      <c r="CM5" s="90"/>
-      <c r="CP5" s="90"/>
-      <c r="CS5" s="90"/>
-      <c r="CV5" s="90"/>
+      <c r="AQ5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AZ5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BF5" s="84"/>
+      <c r="BI5" s="84"/>
+      <c r="BL5" s="84"/>
+      <c r="BO5" s="84"/>
+      <c r="BR5" s="84"/>
+      <c r="BU5" s="84"/>
+      <c r="BX5" s="84"/>
+      <c r="BZ5" s="84"/>
+      <c r="CA5" s="84"/>
+      <c r="CD5" s="84"/>
+      <c r="CG5" s="84"/>
+      <c r="CJ5" s="84"/>
+      <c r="CM5" s="84"/>
+      <c r="CP5" s="84"/>
+      <c r="CS5" s="84"/>
+      <c r="CV5" s="84"/>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
@@ -6655,7 +6676,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="76" t="str">
+      <c r="F6" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6707,31 +6728,31 @@
       <c r="AK6" s="30"/>
       <c r="AL6" s="31"/>
       <c r="AM6" s="34"/>
-      <c r="AN6" s="57" t="str">
+      <c r="AN6" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BO6" s="90"/>
-      <c r="BR6" s="90"/>
-      <c r="BU6" s="90"/>
-      <c r="BX6" s="90"/>
-      <c r="BZ6" s="90"/>
-      <c r="CA6" s="90"/>
-      <c r="CD6" s="90"/>
-      <c r="CG6" s="90"/>
-      <c r="CJ6" s="90"/>
-      <c r="CM6" s="90"/>
-      <c r="CP6" s="90"/>
-      <c r="CS6" s="90"/>
-      <c r="CV6" s="90"/>
+      <c r="AQ6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AW6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BF6" s="84"/>
+      <c r="BI6" s="84"/>
+      <c r="BL6" s="84"/>
+      <c r="BO6" s="84"/>
+      <c r="BR6" s="84"/>
+      <c r="BU6" s="84"/>
+      <c r="BX6" s="84"/>
+      <c r="BZ6" s="84"/>
+      <c r="CA6" s="84"/>
+      <c r="CD6" s="84"/>
+      <c r="CG6" s="84"/>
+      <c r="CJ6" s="84"/>
+      <c r="CM6" s="84"/>
+      <c r="CP6" s="84"/>
+      <c r="CS6" s="84"/>
+      <c r="CV6" s="84"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
@@ -6739,7 +6760,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="76" t="str">
+      <c r="F7" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6791,31 +6812,31 @@
       <c r="AK7" s="30"/>
       <c r="AL7" s="31"/>
       <c r="AM7" s="34"/>
-      <c r="AN7" s="57" t="str">
+      <c r="AN7" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BL7" s="90"/>
-      <c r="BO7" s="90"/>
-      <c r="BR7" s="90"/>
-      <c r="BU7" s="90"/>
-      <c r="BX7" s="90"/>
-      <c r="BZ7" s="90"/>
-      <c r="CA7" s="90"/>
-      <c r="CD7" s="90"/>
-      <c r="CG7" s="90"/>
-      <c r="CJ7" s="90"/>
-      <c r="CM7" s="90"/>
-      <c r="CP7" s="90"/>
-      <c r="CS7" s="90"/>
-      <c r="CV7" s="90"/>
+      <c r="AQ7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BF7" s="84"/>
+      <c r="BI7" s="84"/>
+      <c r="BL7" s="84"/>
+      <c r="BO7" s="84"/>
+      <c r="BR7" s="84"/>
+      <c r="BU7" s="84"/>
+      <c r="BX7" s="84"/>
+      <c r="BZ7" s="84"/>
+      <c r="CA7" s="84"/>
+      <c r="CD7" s="84"/>
+      <c r="CG7" s="84"/>
+      <c r="CJ7" s="84"/>
+      <c r="CM7" s="84"/>
+      <c r="CP7" s="84"/>
+      <c r="CS7" s="84"/>
+      <c r="CV7" s="84"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
@@ -6823,7 +6844,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="76" t="str">
+      <c r="F8" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6875,34 +6896,34 @@
       <c r="AK8" s="30"/>
       <c r="AL8" s="31"/>
       <c r="AM8" s="34"/>
-      <c r="AN8" s="57" t="str">
+      <c r="AN8" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BC8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BL8" s="90"/>
-      <c r="BO8" s="90"/>
-      <c r="BR8" s="90"/>
-      <c r="BU8" s="90"/>
-      <c r="BX8" s="90"/>
-      <c r="BZ8" s="90"/>
-      <c r="CA8" s="90"/>
-      <c r="CD8" s="90"/>
-      <c r="CG8" s="90"/>
-      <c r="CJ8" s="90"/>
-      <c r="CM8" s="90"/>
-      <c r="CP8" s="90"/>
-      <c r="CR8" s="91"/>
-      <c r="CS8" s="90"/>
-      <c r="CU8" s="91"/>
-      <c r="CV8" s="90"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BC8" s="84"/>
+      <c r="BF8" s="84"/>
+      <c r="BI8" s="84"/>
+      <c r="BL8" s="84"/>
+      <c r="BO8" s="84"/>
+      <c r="BR8" s="84"/>
+      <c r="BU8" s="84"/>
+      <c r="BX8" s="84"/>
+      <c r="BZ8" s="84"/>
+      <c r="CA8" s="84"/>
+      <c r="CD8" s="84"/>
+      <c r="CG8" s="84"/>
+      <c r="CJ8" s="84"/>
+      <c r="CM8" s="84"/>
+      <c r="CP8" s="84"/>
+      <c r="CR8" s="55"/>
+      <c r="CS8" s="84"/>
+      <c r="CU8" s="55"/>
+      <c r="CV8" s="84"/>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
@@ -6910,7 +6931,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6962,34 +6983,34 @@
       <c r="AK9" s="30"/>
       <c r="AL9" s="31"/>
       <c r="AM9" s="34"/>
-      <c r="AN9" s="57" t="str">
+      <c r="AN9" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BC9" s="90"/>
-      <c r="BF9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="90"/>
-      <c r="BO9" s="90"/>
-      <c r="BR9" s="90"/>
-      <c r="BU9" s="90"/>
-      <c r="BX9" s="90"/>
-      <c r="BZ9" s="90"/>
-      <c r="CA9" s="90"/>
-      <c r="CD9" s="90"/>
-      <c r="CG9" s="90"/>
-      <c r="CJ9" s="90"/>
-      <c r="CM9" s="90"/>
-      <c r="CP9" s="90"/>
-      <c r="CR9" s="90"/>
-      <c r="CS9" s="90"/>
-      <c r="CU9" s="90"/>
-      <c r="CV9" s="90"/>
+      <c r="AQ9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BF9" s="84"/>
+      <c r="BI9" s="84"/>
+      <c r="BK9" s="85"/>
+      <c r="BL9" s="84"/>
+      <c r="BO9" s="84"/>
+      <c r="BR9" s="84"/>
+      <c r="BU9" s="84"/>
+      <c r="BX9" s="84"/>
+      <c r="BZ9" s="84"/>
+      <c r="CA9" s="84"/>
+      <c r="CD9" s="84"/>
+      <c r="CG9" s="84"/>
+      <c r="CJ9" s="84"/>
+      <c r="CM9" s="84"/>
+      <c r="CP9" s="84"/>
+      <c r="CR9" s="84"/>
+      <c r="CS9" s="84"/>
+      <c r="CU9" s="84"/>
+      <c r="CV9" s="84"/>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
@@ -6997,7 +7018,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7049,39 +7070,39 @@
       <c r="AK10" s="30"/>
       <c r="AL10" s="31"/>
       <c r="AM10" s="34"/>
-      <c r="AN10" s="57" t="str">
+      <c r="AN10" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BC10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BO10" s="90"/>
-      <c r="BR10" s="90"/>
-      <c r="BU10" s="90"/>
-      <c r="BX10" s="90"/>
-      <c r="BZ10" s="90"/>
-      <c r="CA10" s="90"/>
-      <c r="CC10" s="92"/>
-      <c r="CD10" s="90"/>
-      <c r="CF10" s="92"/>
-      <c r="CG10" s="90"/>
-      <c r="CI10" s="92"/>
-      <c r="CJ10" s="90"/>
-      <c r="CL10" s="92"/>
-      <c r="CM10" s="90"/>
-      <c r="CO10" s="92"/>
-      <c r="CP10" s="90"/>
-      <c r="CR10" s="92"/>
-      <c r="CS10" s="90"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BF10" s="84"/>
+      <c r="BI10" s="84"/>
+      <c r="BL10" s="84"/>
+      <c r="BO10" s="84"/>
+      <c r="BR10" s="84"/>
+      <c r="BU10" s="84"/>
+      <c r="BX10" s="84"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="84"/>
+      <c r="CC10" s="85"/>
+      <c r="CD10" s="84"/>
+      <c r="CF10" s="85"/>
+      <c r="CG10" s="84"/>
+      <c r="CI10" s="85"/>
+      <c r="CJ10" s="84"/>
+      <c r="CL10" s="85"/>
+      <c r="CM10" s="84"/>
+      <c r="CO10" s="85"/>
+      <c r="CP10" s="84"/>
+      <c r="CR10" s="85"/>
+      <c r="CS10" s="84"/>
+      <c r="CU10" s="85"/>
+      <c r="CV10" s="84"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
@@ -7089,7 +7110,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7141,43 +7162,43 @@
       <c r="AK11" s="30"/>
       <c r="AL11" s="31"/>
       <c r="AM11" s="34"/>
-      <c r="AN11" s="57" t="str">
+      <c r="AN11" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="90"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="90"/>
-      <c r="BR11" s="90"/>
-      <c r="BU11" s="90"/>
-      <c r="BX11" s="90"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="90"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="90"/>
-      <c r="CF11" s="92"/>
-      <c r="CG11" s="90"/>
-      <c r="CI11" s="92"/>
-      <c r="CJ11" s="90"/>
-      <c r="CL11" s="92"/>
-      <c r="CM11" s="90"/>
-      <c r="CO11" s="92"/>
-      <c r="CP11" s="90"/>
-      <c r="CR11" s="92"/>
-      <c r="CS11" s="90"/>
-      <c r="CU11" s="92"/>
-      <c r="CV11" s="90"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="84"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="84"/>
+      <c r="BF11" s="84"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BN11" s="85"/>
+      <c r="BO11" s="84"/>
+      <c r="BR11" s="84"/>
+      <c r="BU11" s="84"/>
+      <c r="BX11" s="84"/>
+      <c r="BZ11" s="84"/>
+      <c r="CA11" s="84"/>
+      <c r="CC11" s="85"/>
+      <c r="CD11" s="84"/>
+      <c r="CF11" s="85"/>
+      <c r="CG11" s="84"/>
+      <c r="CI11" s="85"/>
+      <c r="CJ11" s="84"/>
+      <c r="CL11" s="85"/>
+      <c r="CM11" s="84"/>
+      <c r="CO11" s="85"/>
+      <c r="CP11" s="84"/>
+      <c r="CR11" s="85"/>
+      <c r="CS11" s="84"/>
+      <c r="CU11" s="85"/>
+      <c r="CV11" s="84"/>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -7185,7 +7206,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="76" t="str">
+      <c r="F12" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7237,38 +7258,38 @@
       <c r="AK12" s="30"/>
       <c r="AL12" s="31"/>
       <c r="AM12" s="34"/>
-      <c r="AN12" s="57" t="str">
+      <c r="AN12" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BC12" s="90"/>
-      <c r="BF12" s="90"/>
-      <c r="BI12" s="90"/>
-      <c r="BL12" s="90"/>
-      <c r="BO12" s="90"/>
-      <c r="BR12" s="90"/>
-      <c r="BU12" s="90"/>
-      <c r="BX12" s="90"/>
-      <c r="BZ12" s="90"/>
-      <c r="CA12" s="90"/>
-      <c r="CC12" s="91"/>
-      <c r="CD12" s="90"/>
-      <c r="CF12" s="91"/>
-      <c r="CG12" s="90"/>
-      <c r="CI12" s="91"/>
-      <c r="CJ12" s="90"/>
-      <c r="CL12" s="91"/>
-      <c r="CM12" s="90"/>
-      <c r="CO12" s="91"/>
-      <c r="CP12" s="90"/>
-      <c r="CR12" s="91"/>
-      <c r="CS12" s="90"/>
-      <c r="CU12" s="91"/>
-      <c r="CV12" s="90"/>
+      <c r="AQ12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BF12" s="84"/>
+      <c r="BI12" s="84"/>
+      <c r="BL12" s="84"/>
+      <c r="BO12" s="84"/>
+      <c r="BR12" s="84"/>
+      <c r="BU12" s="84"/>
+      <c r="BX12" s="84"/>
+      <c r="BZ12" s="84"/>
+      <c r="CA12" s="84"/>
+      <c r="CC12" s="55"/>
+      <c r="CD12" s="84"/>
+      <c r="CF12" s="55"/>
+      <c r="CG12" s="84"/>
+      <c r="CI12" s="55"/>
+      <c r="CJ12" s="84"/>
+      <c r="CL12" s="55"/>
+      <c r="CM12" s="84"/>
+      <c r="CO12" s="55"/>
+      <c r="CP12" s="84"/>
+      <c r="CR12" s="55"/>
+      <c r="CS12" s="84"/>
+      <c r="CU12" s="55"/>
+      <c r="CV12" s="84"/>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
@@ -7276,7 +7297,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="76" t="str">
+      <c r="F13" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7328,35 +7349,35 @@
       <c r="AK13" s="30"/>
       <c r="AL13" s="31"/>
       <c r="AM13" s="34"/>
-      <c r="AN13" s="57" t="str">
+      <c r="AN13" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BC13" s="90"/>
-      <c r="BF13" s="90"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="90"/>
-      <c r="BL13" s="90"/>
-      <c r="BO13" s="90"/>
-      <c r="BR13" s="90"/>
-      <c r="BT13" s="92"/>
-      <c r="BU13" s="90"/>
-      <c r="BX13" s="90"/>
-      <c r="BZ13" s="90"/>
-      <c r="CA13" s="90"/>
-      <c r="CD13" s="90"/>
-      <c r="CG13" s="90"/>
-      <c r="CJ13" s="90"/>
-      <c r="CL13" s="92"/>
-      <c r="CM13" s="90"/>
-      <c r="CO13" s="92"/>
-      <c r="CP13" s="90"/>
-      <c r="CS13" s="90"/>
-      <c r="CV13" s="90"/>
+      <c r="AQ13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BC13" s="84"/>
+      <c r="BF13" s="84"/>
+      <c r="BH13" s="85"/>
+      <c r="BI13" s="84"/>
+      <c r="BL13" s="84"/>
+      <c r="BO13" s="84"/>
+      <c r="BR13" s="84"/>
+      <c r="BT13" s="85"/>
+      <c r="BU13" s="84"/>
+      <c r="BX13" s="84"/>
+      <c r="BZ13" s="84"/>
+      <c r="CA13" s="84"/>
+      <c r="CD13" s="84"/>
+      <c r="CG13" s="84"/>
+      <c r="CJ13" s="84"/>
+      <c r="CL13" s="85"/>
+      <c r="CM13" s="84"/>
+      <c r="CO13" s="85"/>
+      <c r="CP13" s="84"/>
+      <c r="CS13" s="84"/>
+      <c r="CV13" s="84"/>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
@@ -7364,7 +7385,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="76" t="str">
+      <c r="F14" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7416,37 +7437,37 @@
       <c r="AK14" s="30"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="32"/>
-      <c r="AN14" s="57" t="str">
+      <c r="AN14" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ14" s="90"/>
-      <c r="AT14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AY14" s="92"/>
-      <c r="AZ14" s="90"/>
-      <c r="BB14" s="92"/>
-      <c r="BC14" s="90"/>
-      <c r="BF14" s="90"/>
-      <c r="BH14" s="92"/>
-      <c r="BI14" s="90"/>
-      <c r="BK14" s="92"/>
-      <c r="BL14" s="90"/>
-      <c r="BO14" s="90"/>
-      <c r="BR14" s="90"/>
-      <c r="BT14" s="92"/>
-      <c r="BU14" s="90"/>
-      <c r="BW14" s="92"/>
-      <c r="BX14" s="90"/>
-      <c r="BZ14" s="90"/>
-      <c r="CA14" s="90"/>
-      <c r="CD14" s="90"/>
-      <c r="CG14" s="90"/>
-      <c r="CJ14" s="90"/>
-      <c r="CM14" s="90"/>
-      <c r="CP14" s="90"/>
-      <c r="CS14" s="90"/>
-      <c r="CV14" s="90"/>
+      <c r="AQ14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="84"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="84"/>
+      <c r="BF14" s="84"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="84"/>
+      <c r="BK14" s="85"/>
+      <c r="BL14" s="84"/>
+      <c r="BO14" s="84"/>
+      <c r="BR14" s="84"/>
+      <c r="BT14" s="85"/>
+      <c r="BU14" s="84"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="84"/>
+      <c r="BZ14" s="84"/>
+      <c r="CA14" s="84"/>
+      <c r="CD14" s="84"/>
+      <c r="CG14" s="84"/>
+      <c r="CJ14" s="84"/>
+      <c r="CM14" s="84"/>
+      <c r="CP14" s="84"/>
+      <c r="CS14" s="84"/>
+      <c r="CV14" s="84"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
@@ -7454,7 +7475,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="76" t="str">
+      <c r="F15" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7506,36 +7527,36 @@
       <c r="AK15" s="30"/>
       <c r="AL15" s="31"/>
       <c r="AM15" s="34"/>
-      <c r="AN15" s="57" t="str">
+      <c r="AN15" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BC15" s="90"/>
-      <c r="BF15" s="90"/>
-      <c r="BH15" s="92"/>
-      <c r="BI15" s="90"/>
-      <c r="BL15" s="90"/>
-      <c r="BO15" s="90"/>
-      <c r="BR15" s="90"/>
-      <c r="BT15" s="92"/>
-      <c r="BU15" s="90"/>
-      <c r="BW15" s="91"/>
-      <c r="BX15" s="90"/>
-      <c r="BZ15" s="90"/>
-      <c r="CA15" s="90"/>
-      <c r="CC15" s="91"/>
-      <c r="CD15" s="90"/>
-      <c r="CF15" s="91"/>
-      <c r="CG15" s="90"/>
-      <c r="CJ15" s="90"/>
-      <c r="CM15" s="90"/>
-      <c r="CP15" s="90"/>
-      <c r="CS15" s="90"/>
-      <c r="CV15" s="90"/>
+      <c r="AQ15" s="84"/>
+      <c r="AT15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AZ15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BF15" s="84"/>
+      <c r="BH15" s="85"/>
+      <c r="BI15" s="84"/>
+      <c r="BL15" s="84"/>
+      <c r="BO15" s="84"/>
+      <c r="BR15" s="84"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="84"/>
+      <c r="BW15" s="55"/>
+      <c r="BX15" s="84"/>
+      <c r="BZ15" s="84"/>
+      <c r="CA15" s="84"/>
+      <c r="CC15" s="55"/>
+      <c r="CD15" s="84"/>
+      <c r="CF15" s="55"/>
+      <c r="CG15" s="84"/>
+      <c r="CJ15" s="84"/>
+      <c r="CM15" s="84"/>
+      <c r="CP15" s="84"/>
+      <c r="CS15" s="84"/>
+      <c r="CV15" s="84"/>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
@@ -7543,7 +7564,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="76" t="str">
+      <c r="F16" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7595,48 +7616,47 @@
       <c r="AK16" s="30"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="34"/>
-      <c r="AN16" s="57" t="str">
+      <c r="AN16" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="90"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="90"/>
-      <c r="AV16" s="92"/>
-      <c r="AW16" s="90"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="90"/>
-      <c r="BB16" s="92"/>
-      <c r="BC16" s="90"/>
-      <c r="BE16" s="92"/>
-      <c r="BF16" s="90"/>
-      <c r="BH16" s="92"/>
-      <c r="BI16" s="90"/>
-      <c r="BJ16" s="89"/>
-      <c r="BK16" s="92"/>
-      <c r="BL16" s="90"/>
-      <c r="BO16" s="90"/>
-      <c r="BR16" s="90"/>
-      <c r="BT16" s="90"/>
-      <c r="BU16" s="90"/>
-      <c r="BX16" s="90"/>
-      <c r="BZ16" s="90"/>
-      <c r="CA16" s="90"/>
-      <c r="CC16" s="92"/>
-      <c r="CD16" s="90"/>
-      <c r="CF16" s="92"/>
-      <c r="CG16" s="90"/>
-      <c r="CI16" s="92"/>
-      <c r="CJ16" s="90"/>
-      <c r="CL16" s="92"/>
-      <c r="CM16" s="90"/>
-      <c r="CO16" s="92"/>
-      <c r="CP16" s="90"/>
-      <c r="CR16" s="92"/>
-      <c r="CS16" s="90"/>
-      <c r="CU16" s="92"/>
-      <c r="CV16" s="90"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="84"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="84"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="84"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="84"/>
+      <c r="BB16" s="85"/>
+      <c r="BC16" s="84"/>
+      <c r="BE16" s="85"/>
+      <c r="BF16" s="84"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="84"/>
+      <c r="BK16" s="85"/>
+      <c r="BL16" s="84"/>
+      <c r="BO16" s="84"/>
+      <c r="BR16" s="84"/>
+      <c r="BT16" s="84"/>
+      <c r="BU16" s="84"/>
+      <c r="BX16" s="84"/>
+      <c r="BZ16" s="84"/>
+      <c r="CA16" s="84"/>
+      <c r="CC16" s="85"/>
+      <c r="CD16" s="84"/>
+      <c r="CF16" s="85"/>
+      <c r="CG16" s="84"/>
+      <c r="CI16" s="85"/>
+      <c r="CJ16" s="84"/>
+      <c r="CL16" s="85"/>
+      <c r="CM16" s="84"/>
+      <c r="CO16" s="85"/>
+      <c r="CP16" s="84"/>
+      <c r="CR16" s="85"/>
+      <c r="CS16" s="84"/>
+      <c r="CU16" s="85"/>
+      <c r="CV16" s="84"/>
     </row>
     <row r="17" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
@@ -7644,7 +7664,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="76" t="str">
+      <c r="F17" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7696,51 +7716,48 @@
       <c r="AK17" s="30"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="34"/>
-      <c r="AN17" s="57" t="str">
+      <c r="AN17" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP17" s="92"/>
-      <c r="AQ17" s="90"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="90"/>
-      <c r="AV17" s="92"/>
-      <c r="AW17" s="90"/>
-      <c r="AY17" s="92"/>
-      <c r="AZ17" s="90"/>
-      <c r="BB17" s="92"/>
-      <c r="BC17" s="90"/>
-      <c r="BE17" s="92"/>
-      <c r="BF17" s="90"/>
-      <c r="BH17" s="92"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="89"/>
-      <c r="BK17" s="92"/>
-      <c r="BL17" s="90"/>
-      <c r="BM17" s="89"/>
-      <c r="BN17" s="92"/>
-      <c r="BO17" s="90"/>
-      <c r="BP17" s="89"/>
-      <c r="BQ17" s="92"/>
-      <c r="BR17" s="90"/>
-      <c r="BU17" s="90"/>
-      <c r="BX17" s="90"/>
-      <c r="BZ17" s="90"/>
-      <c r="CA17" s="90"/>
-      <c r="CC17" s="92"/>
-      <c r="CD17" s="90"/>
-      <c r="CF17" s="92"/>
-      <c r="CG17" s="90"/>
-      <c r="CI17" s="92"/>
-      <c r="CJ17" s="90"/>
-      <c r="CL17" s="92"/>
-      <c r="CM17" s="90"/>
-      <c r="CO17" s="92"/>
-      <c r="CP17" s="90"/>
-      <c r="CR17" s="92"/>
-      <c r="CS17" s="90"/>
-      <c r="CU17" s="92"/>
-      <c r="CV17" s="90"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="84"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="84"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="84"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="84"/>
+      <c r="BB17" s="85"/>
+      <c r="BC17" s="84"/>
+      <c r="BE17" s="85"/>
+      <c r="BF17" s="84"/>
+      <c r="BH17" s="85"/>
+      <c r="BI17" s="84"/>
+      <c r="BK17" s="85"/>
+      <c r="BL17" s="84"/>
+      <c r="BN17" s="85"/>
+      <c r="BO17" s="84"/>
+      <c r="BQ17" s="85"/>
+      <c r="BR17" s="84"/>
+      <c r="BU17" s="84"/>
+      <c r="BX17" s="84"/>
+      <c r="BZ17" s="84"/>
+      <c r="CA17" s="84"/>
+      <c r="CC17" s="85"/>
+      <c r="CD17" s="84"/>
+      <c r="CF17" s="85"/>
+      <c r="CG17" s="84"/>
+      <c r="CI17" s="85"/>
+      <c r="CJ17" s="84"/>
+      <c r="CL17" s="85"/>
+      <c r="CM17" s="84"/>
+      <c r="CO17" s="85"/>
+      <c r="CP17" s="84"/>
+      <c r="CR17" s="85"/>
+      <c r="CS17" s="84"/>
+      <c r="CU17" s="85"/>
+      <c r="CV17" s="84"/>
     </row>
     <row r="18" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
@@ -7748,7 +7765,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="76" t="str">
+      <c r="F18" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7800,48 +7817,48 @@
       <c r="AK18" s="30"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="34"/>
-      <c r="AN18" s="57" t="str">
+      <c r="AN18" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="90"/>
-      <c r="AS18" s="92"/>
-      <c r="AT18" s="90"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="90"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="90"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="90"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="90"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="90"/>
-      <c r="BK18" s="92"/>
-      <c r="BL18" s="90"/>
-      <c r="BN18" s="92"/>
-      <c r="BO18" s="90"/>
-      <c r="BQ18" s="92"/>
-      <c r="BR18" s="90"/>
-      <c r="BU18" s="90"/>
-      <c r="BX18" s="90"/>
-      <c r="BZ18" s="90"/>
-      <c r="CA18" s="90"/>
-      <c r="CC18" s="92"/>
-      <c r="CD18" s="90"/>
-      <c r="CF18" s="92"/>
-      <c r="CG18" s="90"/>
-      <c r="CI18" s="92"/>
-      <c r="CJ18" s="90"/>
-      <c r="CL18" s="92"/>
-      <c r="CM18" s="90"/>
-      <c r="CO18" s="92"/>
-      <c r="CP18" s="90"/>
-      <c r="CR18" s="92"/>
-      <c r="CS18" s="90"/>
-      <c r="CU18" s="92"/>
-      <c r="CV18" s="90"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="84"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="84"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="84"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="84"/>
+      <c r="BB18" s="85"/>
+      <c r="BC18" s="84"/>
+      <c r="BE18" s="85"/>
+      <c r="BF18" s="84"/>
+      <c r="BH18" s="85"/>
+      <c r="BI18" s="84"/>
+      <c r="BK18" s="85"/>
+      <c r="BL18" s="84"/>
+      <c r="BN18" s="85"/>
+      <c r="BO18" s="84"/>
+      <c r="BQ18" s="85"/>
+      <c r="BR18" s="84"/>
+      <c r="BU18" s="84"/>
+      <c r="BX18" s="84"/>
+      <c r="BZ18" s="84"/>
+      <c r="CA18" s="84"/>
+      <c r="CC18" s="85"/>
+      <c r="CD18" s="84"/>
+      <c r="CF18" s="85"/>
+      <c r="CG18" s="84"/>
+      <c r="CI18" s="85"/>
+      <c r="CJ18" s="84"/>
+      <c r="CL18" s="85"/>
+      <c r="CM18" s="84"/>
+      <c r="CO18" s="85"/>
+      <c r="CP18" s="84"/>
+      <c r="CR18" s="85"/>
+      <c r="CS18" s="84"/>
+      <c r="CU18" s="85"/>
+      <c r="CV18" s="84"/>
     </row>
     <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
@@ -7849,7 +7866,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="76" t="str">
+      <c r="F19" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7901,48 +7918,48 @@
       <c r="AK19" s="30"/>
       <c r="AL19" s="31"/>
       <c r="AM19" s="34"/>
-      <c r="AN19" s="57" t="str">
+      <c r="AN19" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP19" s="92"/>
-      <c r="AQ19" s="90"/>
-      <c r="AS19" s="92"/>
-      <c r="AT19" s="90"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="90"/>
-      <c r="AY19" s="92"/>
-      <c r="AZ19" s="90"/>
-      <c r="BB19" s="92"/>
-      <c r="BC19" s="90"/>
-      <c r="BE19" s="92"/>
-      <c r="BF19" s="90"/>
-      <c r="BH19" s="92"/>
-      <c r="BI19" s="90"/>
-      <c r="BK19" s="92"/>
-      <c r="BL19" s="90"/>
-      <c r="BN19" s="92"/>
-      <c r="BO19" s="90"/>
-      <c r="BQ19" s="92"/>
-      <c r="BR19" s="90"/>
-      <c r="BU19" s="90"/>
-      <c r="BX19" s="90"/>
-      <c r="BZ19" s="90"/>
-      <c r="CA19" s="90"/>
-      <c r="CC19" s="92"/>
-      <c r="CD19" s="90"/>
-      <c r="CF19" s="92"/>
-      <c r="CG19" s="90"/>
-      <c r="CI19" s="92"/>
-      <c r="CJ19" s="90"/>
-      <c r="CL19" s="92"/>
-      <c r="CM19" s="90"/>
-      <c r="CO19" s="92"/>
-      <c r="CP19" s="90"/>
-      <c r="CR19" s="92"/>
-      <c r="CS19" s="90"/>
-      <c r="CU19" s="92"/>
-      <c r="CV19" s="90"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="84"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="84"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="84"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="84"/>
+      <c r="BB19" s="85"/>
+      <c r="BC19" s="84"/>
+      <c r="BE19" s="85"/>
+      <c r="BF19" s="84"/>
+      <c r="BH19" s="85"/>
+      <c r="BI19" s="84"/>
+      <c r="BK19" s="85"/>
+      <c r="BL19" s="84"/>
+      <c r="BN19" s="85"/>
+      <c r="BO19" s="84"/>
+      <c r="BQ19" s="85"/>
+      <c r="BR19" s="84"/>
+      <c r="BU19" s="84"/>
+      <c r="BX19" s="84"/>
+      <c r="BZ19" s="84"/>
+      <c r="CA19" s="84"/>
+      <c r="CC19" s="85"/>
+      <c r="CD19" s="84"/>
+      <c r="CF19" s="85"/>
+      <c r="CG19" s="84"/>
+      <c r="CI19" s="85"/>
+      <c r="CJ19" s="84"/>
+      <c r="CL19" s="85"/>
+      <c r="CM19" s="84"/>
+      <c r="CO19" s="85"/>
+      <c r="CP19" s="84"/>
+      <c r="CR19" s="85"/>
+      <c r="CS19" s="84"/>
+      <c r="CU19" s="85"/>
+      <c r="CV19" s="84"/>
     </row>
     <row r="20" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
@@ -7950,7 +7967,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="76" t="str">
+      <c r="F20" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8002,50 +8019,50 @@
       <c r="AK20" s="30"/>
       <c r="AL20" s="31"/>
       <c r="AM20" s="34"/>
-      <c r="AN20" s="57" t="str">
+      <c r="AN20" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP20" s="92"/>
-      <c r="AQ20" s="90"/>
-      <c r="AS20" s="92"/>
-      <c r="AT20" s="90"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="90"/>
-      <c r="AY20" s="92"/>
-      <c r="AZ20" s="90"/>
-      <c r="BB20" s="92"/>
-      <c r="BC20" s="90"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="90"/>
-      <c r="BH20" s="92"/>
-      <c r="BI20" s="90"/>
-      <c r="BK20" s="92"/>
-      <c r="BL20" s="90"/>
-      <c r="BN20" s="92"/>
-      <c r="BO20" s="90"/>
-      <c r="BQ20" s="92"/>
-      <c r="BR20" s="90"/>
-      <c r="BT20" s="92"/>
-      <c r="BU20" s="90"/>
-      <c r="BW20" s="92"/>
-      <c r="BX20" s="90"/>
-      <c r="BZ20" s="90"/>
-      <c r="CA20" s="90"/>
-      <c r="CC20" s="92"/>
-      <c r="CD20" s="90"/>
-      <c r="CF20" s="92"/>
-      <c r="CG20" s="90"/>
-      <c r="CI20" s="92"/>
-      <c r="CJ20" s="90"/>
-      <c r="CL20" s="92"/>
-      <c r="CM20" s="90"/>
-      <c r="CO20" s="92"/>
-      <c r="CP20" s="90"/>
-      <c r="CR20" s="92"/>
-      <c r="CS20" s="90"/>
-      <c r="CU20" s="92"/>
-      <c r="CV20" s="90"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="84"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="84"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="84"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="84"/>
+      <c r="BB20" s="85"/>
+      <c r="BC20" s="84"/>
+      <c r="BE20" s="85"/>
+      <c r="BF20" s="84"/>
+      <c r="BH20" s="85"/>
+      <c r="BI20" s="84"/>
+      <c r="BK20" s="85"/>
+      <c r="BL20" s="84"/>
+      <c r="BN20" s="85"/>
+      <c r="BO20" s="84"/>
+      <c r="BQ20" s="85"/>
+      <c r="BR20" s="84"/>
+      <c r="BT20" s="85"/>
+      <c r="BU20" s="84"/>
+      <c r="BW20" s="85"/>
+      <c r="BX20" s="84"/>
+      <c r="BZ20" s="84"/>
+      <c r="CA20" s="84"/>
+      <c r="CC20" s="85"/>
+      <c r="CD20" s="84"/>
+      <c r="CF20" s="85"/>
+      <c r="CG20" s="84"/>
+      <c r="CI20" s="85"/>
+      <c r="CJ20" s="84"/>
+      <c r="CL20" s="85"/>
+      <c r="CM20" s="84"/>
+      <c r="CO20" s="85"/>
+      <c r="CP20" s="84"/>
+      <c r="CR20" s="85"/>
+      <c r="CS20" s="84"/>
+      <c r="CU20" s="85"/>
+      <c r="CV20" s="84"/>
     </row>
     <row r="21" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
@@ -8053,7 +8070,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="76" t="str">
+      <c r="F21" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8082,18 +8099,18 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
       <c r="AC21" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8105,34 +8122,34 @@
       <c r="AK21" s="30"/>
       <c r="AL21" s="31"/>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="57" t="str">
+      <c r="AN21" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AQ21" s="90"/>
-      <c r="AT21" s="90"/>
-      <c r="AW21" s="90"/>
-      <c r="AZ21" s="90"/>
-      <c r="BB21" s="92"/>
-      <c r="BC21" s="90"/>
-      <c r="BF21" s="90"/>
-      <c r="BI21" s="90"/>
-      <c r="BK21" s="90"/>
-      <c r="BL21" s="90"/>
-      <c r="BO21" s="90"/>
-      <c r="BR21" s="90"/>
-      <c r="BU21" s="90"/>
-      <c r="BX21" s="90"/>
-      <c r="BZ21" s="92"/>
-      <c r="CA21" s="90"/>
-      <c r="CD21" s="90"/>
-      <c r="CG21" s="90"/>
-      <c r="CJ21" s="90"/>
-      <c r="CM21" s="90"/>
-      <c r="CP21" s="90"/>
-      <c r="CS21" s="90"/>
-      <c r="CU21" s="90"/>
-      <c r="CV21" s="90"/>
+      <c r="AQ21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="84"/>
+      <c r="BF21" s="84"/>
+      <c r="BI21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BR21" s="84"/>
+      <c r="BU21" s="84"/>
+      <c r="BX21" s="84"/>
+      <c r="BZ21" s="85"/>
+      <c r="CA21" s="84"/>
+      <c r="CD21" s="84"/>
+      <c r="CG21" s="84"/>
+      <c r="CJ21" s="84"/>
+      <c r="CM21" s="84"/>
+      <c r="CP21" s="84"/>
+      <c r="CS21" s="84"/>
+      <c r="CU21" s="84"/>
+      <c r="CV21" s="84"/>
     </row>
     <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
@@ -8140,7 +8157,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="77" t="str">
+      <c r="F22" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8169,18 +8186,18 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
       <c r="AC22" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
       <c r="AF22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8192,35 +8209,35 @@
       <c r="AK22" s="37"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="40"/>
-      <c r="AN22" s="87" t="str">
+      <c r="AN22" s="83" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP22" s="92"/>
-      <c r="AQ22" s="90"/>
-      <c r="AT22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="90"/>
-      <c r="BF22" s="90"/>
-      <c r="BI22" s="90"/>
-      <c r="BK22" s="92"/>
-      <c r="BL22" s="90"/>
-      <c r="BO22" s="90"/>
-      <c r="BR22" s="90"/>
-      <c r="BU22" s="90"/>
-      <c r="BX22" s="90"/>
-      <c r="CA22" s="90"/>
-      <c r="CD22" s="90"/>
-      <c r="CG22" s="90"/>
-      <c r="CJ22" s="90"/>
-      <c r="CM22" s="90"/>
-      <c r="CP22" s="90"/>
-      <c r="CR22" s="92"/>
-      <c r="CS22" s="90"/>
-      <c r="CU22" s="92"/>
-      <c r="CV22" s="90"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="84"/>
+      <c r="AT22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AZ22" s="84"/>
+      <c r="BB22" s="85"/>
+      <c r="BC22" s="84"/>
+      <c r="BF22" s="84"/>
+      <c r="BI22" s="84"/>
+      <c r="BK22" s="85"/>
+      <c r="BL22" s="84"/>
+      <c r="BO22" s="84"/>
+      <c r="BR22" s="84"/>
+      <c r="BU22" s="84"/>
+      <c r="BX22" s="84"/>
+      <c r="CA22" s="84"/>
+      <c r="CD22" s="84"/>
+      <c r="CG22" s="84"/>
+      <c r="CJ22" s="84"/>
+      <c r="CM22" s="84"/>
+      <c r="CP22" s="84"/>
+      <c r="CR22" s="85"/>
+      <c r="CS22" s="84"/>
+      <c r="CU22" s="85"/>
+      <c r="CV22" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8238,234 +8255,234 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="64">
         <v>-5.4793240000000001</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="64">
         <v>119.31157399999999</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>-5.4880659999999999</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>119.31312699999999</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>-5.4889159999999997</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>119.309448</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>-5.468826</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="64">
         <v>119.300459</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>-5.4682649999999997</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>119.30207900000001</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>-5.4671349999999999</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>119.302812</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>-5.4901910000000003</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>119.311859</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>-5.491987</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>119.312573</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>-5.49282</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>119.31198000000001</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <v>-5.4639509999999998</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>119.287291</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <v>-5.4620889999999997</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>119.286874</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <v>-5.463902</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>119.28802</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <v>-5.4810160000000003</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <v>119.31128099999999</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <v>-5.4811319999999997</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>119.31211</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <v>-5.4793599999999998</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>119.312033</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <v>-5.4663769999999996</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="64">
         <v>119.30229</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>-5.4682510000000004</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="64">
         <v>119.301957</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="67">
         <v>-5.4686510000000004</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="67">
         <v>119.300428</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
